--- a/cdaf-relink_expanded_data-dictionary.xlsx
+++ b/cdaf-relink_expanded_data-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susannkwentie/CDAF Dropbox/Helen Nde/ReLink/Program/Data Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88DE0AE0-F17D-1540-AB8A-A0D1D760016F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE283C97-26CA-194B-8C59-38420C237295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,9 +947,6 @@
     <t>Why was patient not linked to care?</t>
   </si>
   <si>
-    <t>1, Medically too ill | 2, Deceased | 3, Lost to follow up after attempted contact | 4, Lost to follow up-no contact information | 5, Declined | 6, PT not eligible for LEAP outreach</t>
-  </si>
-  <si>
     <t>Date of upcoming appointment:</t>
   </si>
   <si>
@@ -1115,9 +1112,6 @@
     <t>rx_scheduled</t>
   </si>
   <si>
-    <t xml:space="preserve">Date Care Coordinator discharged patient from LEAP. </t>
-  </si>
-  <si>
     <t>1, Completed HBV Treatment Program | 2, Lost to Follow-Up (including incarcerated) | 3, Transferred Care or Relocated | 4, Deceased | 5, Cleared Virus | 6, Competing Medical Priorities | 7, Patient Refused HBV Care | 8, False Positive | 100, Other</t>
   </si>
   <si>
@@ -2733,6 +2727,12 @@
   </si>
   <si>
     <t>Test results may be higher or lower than normal</t>
+  </si>
+  <si>
+    <t>1, Medically too ill | 2, Deceased | 3, Lost to follow up after attempted contact | 4, Lost to follow up-no contact information | 5, Declined | 6, PT not eligible for  outreach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Care Coordinator discharged patient from program. </t>
   </si>
 </sst>
 </file>
@@ -3593,8 +3593,8 @@
   <dimension ref="A1:R429"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
         <v>284</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>284</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
         <v>284</v>
@@ -3880,10 +3880,10 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -4080,7 +4080,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B22" t="s">
         <v>284</v>
@@ -4089,10 +4089,10 @@
         <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F22" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -4194,7 +4194,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B28" t="s">
         <v>284</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B30" t="s">
         <v>284</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B31" t="s">
         <v>284</v>
@@ -4257,12 +4257,12 @@
         <v>92</v>
       </c>
       <c r="L31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B32" t="s">
         <v>284</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B33" t="s">
         <v>284</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B34" t="s">
         <v>284</v>
@@ -4305,12 +4305,12 @@
         <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B35" t="s">
         <v>284</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B36" t="s">
         <v>284</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B38" t="s">
         <v>284</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B39" t="s">
         <v>284</v>
@@ -4387,7 +4387,7 @@
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G39" t="s">
         <v>69</v>
@@ -4396,12 +4396,12 @@
         <v>177</v>
       </c>
       <c r="L39" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B40" t="s">
         <v>284</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B41" t="s">
         <v>284</v>
@@ -4427,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G41" t="s">
         <v>69</v>
@@ -4436,12 +4436,12 @@
         <v>177</v>
       </c>
       <c r="L41" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s">
         <v>284</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B43" t="s">
         <v>284</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
         <v>284</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s">
         <v>284</v>
@@ -4519,7 +4519,7 @@
         <v>116</v>
       </c>
       <c r="L45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s">
         <v>284</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s">
         <v>284</v>
@@ -4610,10 +4610,10 @@
         <v>124</v>
       </c>
       <c r="F50" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="L50" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M50" t="s">
         <v>33</v>
@@ -4647,7 +4647,7 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F52" t="s">
         <v>128</v>
@@ -4744,7 +4744,7 @@
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F57" t="s">
         <v>188</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s">
         <v>294</v>
@@ -4770,7 +4770,7 @@
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G58" t="s">
         <v>69</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s">
         <v>294</v>
@@ -4793,7 +4793,7 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F59" t="s">
         <v>193</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="60" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s">
         <v>294</v>
@@ -4810,15 +4810,15 @@
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F60" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s">
         <v>294</v>
@@ -4827,15 +4827,15 @@
         <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s">
         <v>294</v>
@@ -4844,12 +4844,12 @@
         <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B63" t="s">
         <v>294</v>
@@ -4858,7 +4858,7 @@
         <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F63" t="s">
         <v>188</v>
@@ -4873,12 +4873,12 @@
         <v>20</v>
       </c>
       <c r="L63" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s">
         <v>294</v>
@@ -4887,7 +4887,7 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -4896,12 +4896,12 @@
         <v>177</v>
       </c>
       <c r="L64" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s">
         <v>294</v>
@@ -4910,18 +4910,18 @@
         <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F65" t="s">
         <v>193</v>
       </c>
       <c r="L65" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s">
         <v>294</v>
@@ -4930,18 +4930,18 @@
         <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L66" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s">
         <v>294</v>
@@ -4950,18 +4950,18 @@
         <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F67" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="L67" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s">
         <v>294</v>
@@ -4970,10 +4970,10 @@
         <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="L68" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -4987,7 +4987,7 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F69" t="s">
         <v>188</v>
@@ -5002,12 +5002,12 @@
         <v>20</v>
       </c>
       <c r="L69" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s">
         <v>294</v>
@@ -5016,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G70" t="s">
         <v>69</v>
@@ -5025,12 +5025,12 @@
         <v>177</v>
       </c>
       <c r="L70" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s">
         <v>294</v>
@@ -5039,18 +5039,18 @@
         <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F71" t="s">
         <v>193</v>
       </c>
       <c r="L71" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s">
         <v>294</v>
@@ -5059,18 +5059,18 @@
         <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L72" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B73" t="s">
         <v>294</v>
@@ -5079,18 +5079,18 @@
         <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F73" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="L73" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B74" t="s">
         <v>294</v>
@@ -5099,10 +5099,10 @@
         <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="L74" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F75" t="s">
         <v>188</v>
@@ -5131,12 +5131,12 @@
         <v>20</v>
       </c>
       <c r="L75" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s">
         <v>294</v>
@@ -5145,7 +5145,7 @@
         <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G76" t="s">
         <v>69</v>
@@ -5154,12 +5154,12 @@
         <v>177</v>
       </c>
       <c r="L76" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s">
         <v>294</v>
@@ -5168,18 +5168,18 @@
         <v>58</v>
       </c>
       <c r="E77" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F77" t="s">
         <v>193</v>
       </c>
       <c r="L77" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s">
         <v>294</v>
@@ -5188,18 +5188,18 @@
         <v>42</v>
       </c>
       <c r="E78" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F78" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L78" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s">
         <v>294</v>
@@ -5208,18 +5208,18 @@
         <v>42</v>
       </c>
       <c r="E79" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F79" t="s">
         <v>192</v>
       </c>
       <c r="L79" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B80" t="s">
         <v>294</v>
@@ -5228,15 +5228,15 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L80" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B81" t="s">
         <v>294</v>
@@ -5254,12 +5254,12 @@
         <v>156</v>
       </c>
       <c r="L81" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B82" t="s">
         <v>294</v>
@@ -5268,15 +5268,15 @@
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B83" t="s">
         <v>294</v>
@@ -5291,12 +5291,12 @@
         <v>155</v>
       </c>
       <c r="L83" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B84" t="s">
         <v>294</v>
@@ -5308,12 +5308,12 @@
         <v>138</v>
       </c>
       <c r="L84" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B85" t="s">
         <v>244</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B87" t="s">
         <v>244</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B88" t="s">
         <v>244</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B89" t="s">
         <v>244</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B90" t="s">
         <v>244</v>
@@ -5433,13 +5433,13 @@
         <v>252</v>
       </c>
       <c r="G90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H90" t="s">
         <v>177</v>
       </c>
       <c r="L90" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -5453,12 +5453,12 @@
         <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B92" t="s">
         <v>244</v>
@@ -5476,12 +5476,12 @@
         <v>286</v>
       </c>
       <c r="L92" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s">
         <v>244</v>
@@ -5493,12 +5493,12 @@
         <v>171</v>
       </c>
       <c r="L93" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B94" t="s">
         <v>244</v>
@@ -5513,12 +5513,12 @@
         <v>175</v>
       </c>
       <c r="L94" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B95" t="s">
         <v>244</v>
@@ -5530,12 +5530,12 @@
         <v>176</v>
       </c>
       <c r="L95" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B96" t="s">
         <v>244</v>
@@ -5550,12 +5550,12 @@
         <v>44</v>
       </c>
       <c r="L96" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B97" t="s">
         <v>244</v>
@@ -5570,12 +5570,12 @@
         <v>44</v>
       </c>
       <c r="L97" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B98" t="s">
         <v>244</v>
@@ -5587,12 +5587,12 @@
         <v>135</v>
       </c>
       <c r="L98" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s">
         <v>244</v>
@@ -5610,12 +5610,12 @@
         <v>158</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s">
         <v>244</v>
@@ -5630,12 +5630,12 @@
         <v>178</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B101" t="s">
         <v>244</v>
@@ -5650,12 +5650,12 @@
         <v>178</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B102" t="s">
         <v>244</v>
@@ -5670,12 +5670,12 @@
         <v>178</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B103" t="s">
         <v>244</v>
@@ -5690,12 +5690,12 @@
         <v>178</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B104" t="s">
         <v>244</v>
@@ -5710,12 +5710,12 @@
         <v>178</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B105" t="s">
         <v>244</v>
@@ -5730,12 +5730,12 @@
         <v>178</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B106" t="s">
         <v>244</v>
@@ -5750,12 +5750,12 @@
         <v>178</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B107" t="s">
         <v>244</v>
@@ -5770,12 +5770,12 @@
         <v>178</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B108" t="s">
         <v>244</v>
@@ -5790,12 +5790,12 @@
         <v>178</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B109" t="s">
         <v>244</v>
@@ -5810,12 +5810,12 @@
         <v>178</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B110" t="s">
         <v>244</v>
@@ -5830,12 +5830,12 @@
         <v>178</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B111" t="s">
         <v>244</v>
@@ -5850,12 +5850,12 @@
         <v>178</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B112" t="s">
         <v>244</v>
@@ -5864,18 +5864,18 @@
         <v>58</v>
       </c>
       <c r="E112" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F112" t="s">
         <v>178</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B113" t="s">
         <v>244</v>
@@ -5890,12 +5890,12 @@
         <v>178</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s">
         <v>244</v>
@@ -5910,12 +5910,12 @@
         <v>178</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B115" t="s">
         <v>244</v>
@@ -5930,12 +5930,12 @@
         <v>178</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B116" t="s">
         <v>244</v>
@@ -5950,12 +5950,12 @@
         <v>178</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B117" t="s">
         <v>244</v>
@@ -5970,12 +5970,12 @@
         <v>178</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s">
         <v>244</v>
@@ -5990,7 +5990,7 @@
         <v>178</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="R118" t="s">
         <v>172</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B119" t="s">
         <v>244</v>
@@ -6010,18 +6010,18 @@
         <v>58</v>
       </c>
       <c r="E119" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F119" t="s">
         <v>44</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B120" t="s">
         <v>244</v>
@@ -6030,18 +6030,18 @@
         <v>58</v>
       </c>
       <c r="E120" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L120" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B121" t="s">
         <v>244</v>
@@ -6050,15 +6050,15 @@
         <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="L121" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B122" t="s">
         <v>244</v>
@@ -6073,12 +6073,12 @@
         <v>44</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B123" t="s">
         <v>244</v>
@@ -6093,12 +6093,12 @@
         <v>143</v>
       </c>
       <c r="L123" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B124" t="s">
         <v>244</v>
@@ -6107,18 +6107,18 @@
         <v>58</v>
       </c>
       <c r="E124" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F124" t="s">
         <v>44</v>
       </c>
       <c r="L124" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B125" t="s">
         <v>244</v>
@@ -6133,12 +6133,12 @@
         <v>140</v>
       </c>
       <c r="L125" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B126" t="s">
         <v>244</v>
@@ -6147,21 +6147,21 @@
         <v>18</v>
       </c>
       <c r="E126" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="L126" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B127" t="s">
         <v>244</v>
       </c>
       <c r="C127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D127" t="s">
         <v>58</v>
@@ -6170,7 +6170,7 @@
         <v>297</v>
       </c>
       <c r="F127" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G127" t="s">
         <v>298</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B128" t="s">
         <v>244</v>
@@ -6196,12 +6196,12 @@
         <v>300</v>
       </c>
       <c r="L128" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B129" t="s">
         <v>244</v>
@@ -6213,15 +6213,15 @@
         <v>301</v>
       </c>
       <c r="F129" t="s">
-        <v>302</v>
+        <v>896</v>
       </c>
       <c r="L129" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B130" t="s">
         <v>244</v>
@@ -6230,18 +6230,18 @@
         <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H130" t="s">
         <v>177</v>
       </c>
       <c r="L130" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B131" t="s">
         <v>244</v>
@@ -6250,16 +6250,16 @@
         <v>18</v>
       </c>
       <c r="E131" t="s">
+        <v>303</v>
+      </c>
+      <c r="G131" t="s">
         <v>304</v>
-      </c>
-      <c r="G131" t="s">
-        <v>305</v>
       </c>
       <c r="H131" t="s">
         <v>177</v>
       </c>
       <c r="L131" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M131" t="s">
         <v>33</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B132" t="s">
         <v>244</v>
@@ -6276,16 +6276,16 @@
         <v>42</v>
       </c>
       <c r="E132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H132" t="s">
         <v>115</v>
       </c>
       <c r="L132" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M132" t="s">
         <v>33</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B133" t="s">
         <v>244</v>
@@ -6302,15 +6302,15 @@
         <v>84</v>
       </c>
       <c r="E133" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B134" t="s">
         <v>244</v>
@@ -6319,7 +6319,7 @@
         <v>18</v>
       </c>
       <c r="E134" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G134" t="s">
         <v>253</v>
@@ -6339,7 +6339,7 @@
         <v>81</v>
       </c>
       <c r="E135" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G135" t="s">
         <v>255</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B136" t="s">
         <v>244</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B137" t="s">
         <v>244</v>
@@ -6370,7 +6370,7 @@
         <v>81</v>
       </c>
       <c r="E137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -6381,7 +6381,7 @@
         <v>244</v>
       </c>
       <c r="C138" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -6390,7 +6390,7 @@
         <v>247</v>
       </c>
       <c r="G138" t="s">
-        <v>358</v>
+        <v>897</v>
       </c>
       <c r="H138" t="s">
         <v>177</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B139" t="s">
         <v>244</v>
@@ -6413,12 +6413,12 @@
         <v>249</v>
       </c>
       <c r="L139" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B140" t="s">
         <v>244</v>
@@ -6427,18 +6427,18 @@
         <v>58</v>
       </c>
       <c r="E140" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F140" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L140" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B141" t="s">
         <v>244</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B142" t="s">
         <v>244</v>
@@ -6469,16 +6469,16 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B143" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D143" t="s">
         <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F143" t="s">
         <v>269</v>
@@ -6486,33 +6486,33 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B144" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D144" t="s">
         <v>58</v>
       </c>
       <c r="E144" t="s">
+        <v>388</v>
+      </c>
+      <c r="F144" t="s">
         <v>390</v>
-      </c>
-      <c r="F144" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B145" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
       </c>
       <c r="E145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H145" t="s">
         <v>177</v>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D146" t="s">
         <v>213</v>
@@ -6540,22 +6540,22 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B147" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D147" t="s">
         <v>103</v>
       </c>
       <c r="E147" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F147" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K147" t="s">
         <v>33</v>
@@ -6563,10 +6563,10 @@
     </row>
     <row r="148" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B148" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
@@ -6575,21 +6575,21 @@
         <v>287</v>
       </c>
       <c r="G148" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H148" t="s">
         <v>177</v>
       </c>
       <c r="L148" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B149" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -6598,21 +6598,21 @@
         <v>287</v>
       </c>
       <c r="G149" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H149" t="s">
         <v>177</v>
       </c>
       <c r="L149" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B150" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D150" t="s">
         <v>84</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B151" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D151" t="s">
         <v>58</v>
@@ -6641,15 +6641,15 @@
         <v>44</v>
       </c>
       <c r="L151" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B152" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
@@ -6664,15 +6664,15 @@
         <v>1</v>
       </c>
       <c r="L152" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B153" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D153" t="s">
         <v>84</v>
@@ -6681,18 +6681,18 @@
         <v>261</v>
       </c>
       <c r="F153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L153" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B154" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D154" t="s">
         <v>58</v>
@@ -6704,15 +6704,15 @@
         <v>263</v>
       </c>
       <c r="L154" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B155" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D155" t="s">
         <v>81</v>
@@ -6723,50 +6723,50 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B156" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D156" t="s">
         <v>58</v>
       </c>
       <c r="E156" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F156" t="s">
         <v>44</v>
       </c>
       <c r="L156" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B157" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D157" t="s">
         <v>84</v>
       </c>
       <c r="E157" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F157" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L157" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D158" t="s">
         <v>81</v>
@@ -6775,21 +6775,21 @@
         <v>264</v>
       </c>
       <c r="L158" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B159" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D159" t="s">
         <v>58</v>
       </c>
       <c r="E159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F159" t="s">
         <v>44</v>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B160" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D160" t="s">
         <v>84</v>
@@ -6814,13 +6814,13 @@
     </row>
     <row r="161" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B161" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D161" t="s">
         <v>18</v>
@@ -6829,38 +6829,38 @@
         <v>271</v>
       </c>
       <c r="H161" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L161" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B162" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D162" t="s">
         <v>18</v>
       </c>
       <c r="E162" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H162" t="s">
         <v>177</v>
       </c>
       <c r="L162" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B163" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D163" t="s">
         <v>58</v>
@@ -6869,18 +6869,18 @@
         <v>274</v>
       </c>
       <c r="F163" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L163" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B164" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D164" t="s">
         <v>18</v>
@@ -6889,38 +6889,38 @@
         <v>270</v>
       </c>
       <c r="H164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L164" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B165" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
       </c>
       <c r="E165" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H165" t="s">
         <v>177</v>
       </c>
       <c r="L165" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B166" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D166" t="s">
         <v>58</v>
@@ -6929,38 +6929,38 @@
         <v>272</v>
       </c>
       <c r="F166" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L166" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B167" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D167" t="s">
         <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H167" t="s">
         <v>177</v>
       </c>
       <c r="L167" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B168" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D168" t="s">
         <v>58</v>
@@ -6969,38 +6969,38 @@
         <v>276</v>
       </c>
       <c r="F168" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L168" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B169" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D169" t="s">
         <v>18</v>
       </c>
       <c r="E169" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H169" t="s">
         <v>177</v>
       </c>
       <c r="L169" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B170" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D170" t="s">
         <v>58</v>
@@ -7009,38 +7009,38 @@
         <v>277</v>
       </c>
       <c r="F170" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L170" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B171" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
       </c>
       <c r="E171" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H171" t="s">
         <v>177</v>
       </c>
       <c r="L171" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B172" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D172" t="s">
         <v>58</v>
@@ -7049,78 +7049,78 @@
         <v>278</v>
       </c>
       <c r="F172" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L172" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B173" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
       </c>
       <c r="E173" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H173" t="s">
         <v>177</v>
       </c>
       <c r="L173" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B174" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D174" t="s">
         <v>18</v>
       </c>
       <c r="E174" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L174" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B175" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H175" t="s">
         <v>177</v>
       </c>
       <c r="L175" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B176" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D176" t="s">
         <v>58</v>
@@ -7134,10 +7134,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B177" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D177" t="s">
         <v>58</v>
@@ -7146,15 +7146,15 @@
         <v>196</v>
       </c>
       <c r="F177" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B178" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
@@ -7168,16 +7168,16 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B179" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D179" t="s">
         <v>58</v>
       </c>
       <c r="E179" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F179" t="s">
         <v>195</v>
@@ -7185,33 +7185,33 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B180" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D180" t="s">
         <v>58</v>
       </c>
       <c r="E180" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F180" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B181" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
       </c>
       <c r="E181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H181" t="s">
         <v>177</v>
@@ -7219,33 +7219,33 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B182" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
       </c>
       <c r="E182" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B183" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
       </c>
       <c r="E183" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H183" t="s">
         <v>177</v>
@@ -7253,33 +7253,33 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B184" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D184" t="s">
         <v>18</v>
       </c>
       <c r="E184" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H184" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B185" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H185" t="s">
         <v>177</v>
@@ -7287,33 +7287,33 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B186" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
       </c>
       <c r="E186" t="s">
+        <v>323</v>
+      </c>
+      <c r="H186" t="s">
         <v>324</v>
-      </c>
-      <c r="H186" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B187" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D187" t="s">
         <v>18</v>
       </c>
       <c r="E187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H187" t="s">
         <v>177</v>
@@ -7321,33 +7321,33 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B188" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
       </c>
       <c r="E188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H188" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B189" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
       </c>
       <c r="E189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H189" t="s">
         <v>177</v>
@@ -7355,33 +7355,33 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D190" t="s">
         <v>18</v>
       </c>
       <c r="E190" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B191" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
       </c>
       <c r="E191" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H191" t="s">
         <v>177</v>
@@ -7389,44 +7389,44 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B192" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D192" t="s">
         <v>103</v>
       </c>
       <c r="E192" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F192" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B193" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D193" t="s">
         <v>58</v>
       </c>
       <c r="E193" t="s">
+        <v>332</v>
+      </c>
+      <c r="F193" t="s">
         <v>333</v>
-      </c>
-      <c r="F193" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B194" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D194" t="s">
         <v>18</v>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D195" t="s">
         <v>58</v>
@@ -7449,18 +7449,18 @@
         <v>275</v>
       </c>
       <c r="F195" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G195" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B196" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C196" t="s">
         <v>198</v>
@@ -7469,21 +7469,21 @@
         <v>58</v>
       </c>
       <c r="E196" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F196" t="s">
         <v>60</v>
       </c>
       <c r="L196" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D197" t="s">
         <v>84</v>
@@ -7498,106 +7498,106 @@
         <v>200</v>
       </c>
       <c r="L197" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D198" t="s">
         <v>18</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L198" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D199" t="s">
         <v>58</v>
       </c>
       <c r="E199" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F199" t="s">
         <v>60</v>
       </c>
       <c r="L199" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D200" t="s">
         <v>84</v>
       </c>
       <c r="E200" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F200" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G200" t="s">
         <v>200</v>
       </c>
       <c r="L200" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L201" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D202" t="s">
         <v>213</v>
       </c>
       <c r="E202" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B203" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D203" t="s">
         <v>84</v>
@@ -7612,15 +7612,15 @@
         <v>218</v>
       </c>
       <c r="L203" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B204" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D204" t="s">
         <v>81</v>
@@ -7629,21 +7629,21 @@
         <v>219</v>
       </c>
       <c r="L204" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D205" t="s">
         <v>42</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
         <v>269</v>
@@ -7651,33 +7651,33 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B206" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D206" t="s">
         <v>58</v>
       </c>
       <c r="E206" t="s">
+        <v>388</v>
+      </c>
+      <c r="F206" t="s">
         <v>390</v>
-      </c>
-      <c r="F206" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B207" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
       </c>
       <c r="E207" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H207" t="s">
         <v>177</v>
@@ -7685,10 +7685,10 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B208" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D208" t="s">
         <v>213</v>
@@ -7705,22 +7705,22 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B209" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C209" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D209" t="s">
         <v>103</v>
       </c>
       <c r="E209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F209" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K209" t="s">
         <v>33</v>
@@ -7728,10 +7728,10 @@
     </row>
     <row r="210" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B210" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D210" t="s">
         <v>18</v>
@@ -7740,21 +7740,21 @@
         <v>287</v>
       </c>
       <c r="G210" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H210" t="s">
         <v>177</v>
       </c>
       <c r="L210" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B211" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D211" t="s">
         <v>18</v>
@@ -7763,21 +7763,21 @@
         <v>287</v>
       </c>
       <c r="G211" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H211" t="s">
         <v>177</v>
       </c>
       <c r="L211" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B212" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D212" t="s">
         <v>84</v>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B213" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D213" t="s">
         <v>58</v>
@@ -7806,15 +7806,15 @@
         <v>44</v>
       </c>
       <c r="L213" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B214" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D214" t="s">
         <v>18</v>
@@ -7829,15 +7829,15 @@
         <v>1</v>
       </c>
       <c r="L214" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B215" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D215" t="s">
         <v>84</v>
@@ -7846,18 +7846,18 @@
         <v>261</v>
       </c>
       <c r="F215" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L215" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B216" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D216" t="s">
         <v>58</v>
@@ -7869,15 +7869,15 @@
         <v>263</v>
       </c>
       <c r="L216" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B217" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D217" t="s">
         <v>81</v>
@@ -7888,50 +7888,50 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B218" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D218" t="s">
         <v>58</v>
       </c>
       <c r="E218" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F218" t="s">
         <v>44</v>
       </c>
       <c r="L218" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B219" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D219" t="s">
         <v>84</v>
       </c>
       <c r="E219" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F219" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L219" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D220" t="s">
         <v>81</v>
@@ -7940,21 +7940,21 @@
         <v>264</v>
       </c>
       <c r="L220" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B221" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D221" t="s">
         <v>58</v>
       </c>
       <c r="E221" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F221" t="s">
         <v>44</v>
@@ -7962,10 +7962,10 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B222" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D222" t="s">
         <v>84</v>
@@ -7979,13 +7979,13 @@
     </row>
     <row r="223" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B223" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C223" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D223" t="s">
         <v>18</v>
@@ -7994,38 +7994,38 @@
         <v>271</v>
       </c>
       <c r="H223" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L223" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B224" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
       </c>
       <c r="E224" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H224" t="s">
         <v>177</v>
       </c>
       <c r="L224" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B225" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D225" t="s">
         <v>58</v>
@@ -8034,18 +8034,18 @@
         <v>274</v>
       </c>
       <c r="F225" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L225" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D226" t="s">
         <v>18</v>
@@ -8054,38 +8054,38 @@
         <v>270</v>
       </c>
       <c r="H226" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L226" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B227" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D227" t="s">
         <v>18</v>
       </c>
       <c r="E227" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H227" t="s">
         <v>177</v>
       </c>
       <c r="L227" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B228" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D228" t="s">
         <v>58</v>
@@ -8094,38 +8094,38 @@
         <v>272</v>
       </c>
       <c r="F228" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L228" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B229" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D229" t="s">
         <v>18</v>
       </c>
       <c r="E229" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H229" t="s">
         <v>177</v>
       </c>
       <c r="L229" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B230" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D230" t="s">
         <v>58</v>
@@ -8134,38 +8134,38 @@
         <v>276</v>
       </c>
       <c r="F230" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L230" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B231" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D231" t="s">
         <v>18</v>
       </c>
       <c r="E231" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H231" t="s">
         <v>177</v>
       </c>
       <c r="L231" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B232" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D232" t="s">
         <v>58</v>
@@ -8174,38 +8174,38 @@
         <v>277</v>
       </c>
       <c r="F232" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L232" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B233" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D233" t="s">
         <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H233" t="s">
         <v>177</v>
       </c>
       <c r="L233" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B234" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D234" t="s">
         <v>58</v>
@@ -8214,78 +8214,78 @@
         <v>278</v>
       </c>
       <c r="F234" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L234" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B235" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D235" t="s">
         <v>18</v>
       </c>
       <c r="E235" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H235" t="s">
         <v>177</v>
       </c>
       <c r="L235" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B236" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D236" t="s">
         <v>18</v>
       </c>
       <c r="E236" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L236" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B237" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D237" t="s">
         <v>18</v>
       </c>
       <c r="E237" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H237" t="s">
         <v>177</v>
       </c>
       <c r="L237" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B238" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D238" t="s">
         <v>58</v>
@@ -8299,10 +8299,10 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B239" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D239" t="s">
         <v>58</v>
@@ -8311,15 +8311,15 @@
         <v>196</v>
       </c>
       <c r="F239" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B240" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D240" t="s">
         <v>18</v>
@@ -8333,16 +8333,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B241" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D241" t="s">
         <v>58</v>
       </c>
       <c r="E241" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F241" t="s">
         <v>195</v>
@@ -8350,33 +8350,33 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B242" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D242" t="s">
         <v>58</v>
       </c>
       <c r="E242" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F242" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B243" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D243" t="s">
         <v>18</v>
       </c>
       <c r="E243" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H243" t="s">
         <v>177</v>
@@ -8384,33 +8384,33 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B244" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D244" t="s">
         <v>18</v>
       </c>
       <c r="E244" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H244" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B245" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D245" t="s">
         <v>18</v>
       </c>
       <c r="E245" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H245" t="s">
         <v>177</v>
@@ -8418,33 +8418,33 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B246" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D246" t="s">
         <v>18</v>
       </c>
       <c r="E246" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H246" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B247" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D247" t="s">
         <v>18</v>
       </c>
       <c r="E247" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H247" t="s">
         <v>177</v>
@@ -8452,33 +8452,33 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B248" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D248" t="s">
         <v>18</v>
       </c>
       <c r="E248" t="s">
+        <v>323</v>
+      </c>
+      <c r="H248" t="s">
         <v>324</v>
-      </c>
-      <c r="H248" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B249" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
       </c>
       <c r="E249" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H249" t="s">
         <v>177</v>
@@ -8486,33 +8486,33 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B250" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D250" t="s">
         <v>18</v>
       </c>
       <c r="E250" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H250" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B251" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D251" t="s">
         <v>18</v>
       </c>
       <c r="E251" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H251" t="s">
         <v>177</v>
@@ -8520,33 +8520,33 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B252" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D252" t="s">
         <v>18</v>
       </c>
       <c r="E252" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H252" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B253" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D253" t="s">
         <v>18</v>
       </c>
       <c r="E253" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H253" t="s">
         <v>177</v>
@@ -8554,44 +8554,44 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B254" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D254" t="s">
         <v>103</v>
       </c>
       <c r="E254" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F254" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B255" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D255" t="s">
         <v>58</v>
       </c>
       <c r="E255" t="s">
+        <v>332</v>
+      </c>
+      <c r="F255" t="s">
         <v>333</v>
-      </c>
-      <c r="F255" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B256" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D256" t="s">
         <v>18</v>
@@ -8602,10 +8602,10 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B257" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D257" t="s">
         <v>58</v>
@@ -8614,18 +8614,18 @@
         <v>275</v>
       </c>
       <c r="F257" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G257" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B258" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C258" t="s">
         <v>198</v>
@@ -8634,21 +8634,21 @@
         <v>58</v>
       </c>
       <c r="E258" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F258" t="s">
         <v>44</v>
       </c>
       <c r="L258" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B259" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D259" t="s">
         <v>84</v>
@@ -8663,106 +8663,106 @@
         <v>200</v>
       </c>
       <c r="L259" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B260" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
       </c>
       <c r="E260" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L260" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B261" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D261" t="s">
         <v>58</v>
       </c>
       <c r="E261" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F261" t="s">
         <v>44</v>
       </c>
       <c r="L261" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B262" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D262" t="s">
         <v>84</v>
       </c>
       <c r="E262" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F262" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G262" t="s">
         <v>200</v>
       </c>
       <c r="L262" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B263" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D263" t="s">
         <v>18</v>
       </c>
       <c r="E263" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L263" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B264" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D264" t="s">
         <v>213</v>
       </c>
       <c r="E264" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B265" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D265" t="s">
         <v>84</v>
@@ -8777,15 +8777,15 @@
         <v>218</v>
       </c>
       <c r="L265" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B266" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D266" t="s">
         <v>81</v>
@@ -8794,21 +8794,21 @@
         <v>219</v>
       </c>
       <c r="L266" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B267" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D267" t="s">
         <v>42</v>
       </c>
       <c r="E267" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F267" t="s">
         <v>269</v>
@@ -8816,33 +8816,33 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B268" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D268" t="s">
         <v>58</v>
       </c>
       <c r="E268" t="s">
+        <v>388</v>
+      </c>
+      <c r="F268" t="s">
         <v>390</v>
-      </c>
-      <c r="F268" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B269" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D269" t="s">
         <v>18</v>
       </c>
       <c r="E269" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H269" t="s">
         <v>177</v>
@@ -8850,10 +8850,10 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B270" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D270" t="s">
         <v>213</v>
@@ -8870,22 +8870,22 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B271" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C271" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D271" t="s">
         <v>103</v>
       </c>
       <c r="E271" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F271" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K271" t="s">
         <v>33</v>
@@ -8893,10 +8893,10 @@
     </row>
     <row r="272" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B272" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D272" t="s">
         <v>18</v>
@@ -8905,21 +8905,21 @@
         <v>287</v>
       </c>
       <c r="G272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H272" t="s">
         <v>177</v>
       </c>
       <c r="L272" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B273" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D273" t="s">
         <v>18</v>
@@ -8928,21 +8928,21 @@
         <v>287</v>
       </c>
       <c r="G273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H273" t="s">
         <v>177</v>
       </c>
       <c r="L273" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B274" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D274" t="s">
         <v>84</v>
@@ -8956,10 +8956,10 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B275" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D275" t="s">
         <v>58</v>
@@ -8971,15 +8971,15 @@
         <v>44</v>
       </c>
       <c r="L275" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B276" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D276" t="s">
         <v>18</v>
@@ -8994,15 +8994,15 @@
         <v>1</v>
       </c>
       <c r="L276" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B277" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D277" t="s">
         <v>84</v>
@@ -9011,18 +9011,18 @@
         <v>261</v>
       </c>
       <c r="F277" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L277" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B278" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D278" t="s">
         <v>58</v>
@@ -9034,15 +9034,15 @@
         <v>263</v>
       </c>
       <c r="L278" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B279" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D279" t="s">
         <v>81</v>
@@ -9053,50 +9053,50 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B280" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D280" t="s">
         <v>58</v>
       </c>
       <c r="E280" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F280" t="s">
         <v>44</v>
       </c>
       <c r="L280" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B281" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D281" t="s">
         <v>84</v>
       </c>
       <c r="E281" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F281" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L281" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B282" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D282" t="s">
         <v>81</v>
@@ -9105,21 +9105,21 @@
         <v>264</v>
       </c>
       <c r="L282" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B283" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D283" t="s">
         <v>58</v>
       </c>
       <c r="E283" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F283" t="s">
         <v>44</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B284" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D284" t="s">
         <v>84</v>
@@ -9144,13 +9144,13 @@
     </row>
     <row r="285" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B285" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C285" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D285" t="s">
         <v>18</v>
@@ -9159,38 +9159,38 @@
         <v>271</v>
       </c>
       <c r="H285" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L285" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B286" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D286" t="s">
         <v>18</v>
       </c>
       <c r="E286" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H286" t="s">
         <v>177</v>
       </c>
       <c r="L286" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B287" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D287" t="s">
         <v>58</v>
@@ -9199,18 +9199,18 @@
         <v>274</v>
       </c>
       <c r="F287" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L287" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B288" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
@@ -9219,38 +9219,38 @@
         <v>270</v>
       </c>
       <c r="H288" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L288" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B289" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D289" t="s">
         <v>18</v>
       </c>
       <c r="E289" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H289" t="s">
         <v>177</v>
       </c>
       <c r="L289" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B290" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D290" t="s">
         <v>58</v>
@@ -9259,38 +9259,38 @@
         <v>272</v>
       </c>
       <c r="F290" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L290" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B291" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D291" t="s">
         <v>18</v>
       </c>
       <c r="E291" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H291" t="s">
         <v>177</v>
       </c>
       <c r="L291" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B292" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D292" t="s">
         <v>58</v>
@@ -9299,38 +9299,38 @@
         <v>276</v>
       </c>
       <c r="F292" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L292" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B293" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D293" t="s">
         <v>18</v>
       </c>
       <c r="E293" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H293" t="s">
         <v>177</v>
       </c>
       <c r="L293" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="294" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B294" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D294" t="s">
         <v>58</v>
@@ -9339,38 +9339,38 @@
         <v>277</v>
       </c>
       <c r="F294" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L294" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B295" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D295" t="s">
         <v>18</v>
       </c>
       <c r="E295" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H295" t="s">
         <v>177</v>
       </c>
       <c r="L295" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B296" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D296" t="s">
         <v>58</v>
@@ -9379,78 +9379,78 @@
         <v>278</v>
       </c>
       <c r="F296" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L296" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B297" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D297" t="s">
         <v>18</v>
       </c>
       <c r="E297" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H297" t="s">
         <v>177</v>
       </c>
       <c r="L297" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B298" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D298" t="s">
         <v>18</v>
       </c>
       <c r="E298" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H298" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L298" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B299" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D299" t="s">
         <v>18</v>
       </c>
       <c r="E299" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H299" t="s">
         <v>177</v>
       </c>
       <c r="L299" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B300" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D300" t="s">
         <v>58</v>
@@ -9464,10 +9464,10 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B301" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D301" t="s">
         <v>58</v>
@@ -9476,15 +9476,15 @@
         <v>196</v>
       </c>
       <c r="F301" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B302" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D302" t="s">
         <v>18</v>
@@ -9498,16 +9498,16 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B303" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D303" t="s">
         <v>58</v>
       </c>
       <c r="E303" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F303" t="s">
         <v>195</v>
@@ -9515,33 +9515,33 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B304" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D304" t="s">
         <v>58</v>
       </c>
       <c r="E304" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F304" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B305" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D305" t="s">
         <v>18</v>
       </c>
       <c r="E305" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H305" t="s">
         <v>177</v>
@@ -9549,33 +9549,33 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B306" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D306" t="s">
         <v>18</v>
       </c>
       <c r="E306" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H306" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B307" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D307" t="s">
         <v>18</v>
       </c>
       <c r="E307" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H307" t="s">
         <v>177</v>
@@ -9583,33 +9583,33 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B308" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D308" t="s">
         <v>18</v>
       </c>
       <c r="E308" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H308" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B309" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D309" t="s">
         <v>18</v>
       </c>
       <c r="E309" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H309" t="s">
         <v>177</v>
@@ -9617,33 +9617,33 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B310" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D310" t="s">
         <v>18</v>
       </c>
       <c r="E310" t="s">
+        <v>323</v>
+      </c>
+      <c r="H310" t="s">
         <v>324</v>
-      </c>
-      <c r="H310" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B311" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D311" t="s">
         <v>18</v>
       </c>
       <c r="E311" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H311" t="s">
         <v>177</v>
@@ -9651,33 +9651,33 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B312" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D312" t="s">
         <v>18</v>
       </c>
       <c r="E312" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H312" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B313" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D313" t="s">
         <v>18</v>
       </c>
       <c r="E313" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H313" t="s">
         <v>177</v>
@@ -9685,33 +9685,33 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B314" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D314" t="s">
         <v>18</v>
       </c>
       <c r="E314" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H314" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B315" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D315" t="s">
         <v>18</v>
       </c>
       <c r="E315" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H315" t="s">
         <v>177</v>
@@ -9719,44 +9719,44 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B316" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D316" t="s">
         <v>103</v>
       </c>
       <c r="E316" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F316" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B317" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D317" t="s">
         <v>58</v>
       </c>
       <c r="E317" t="s">
+        <v>332</v>
+      </c>
+      <c r="F317" t="s">
         <v>333</v>
-      </c>
-      <c r="F317" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B318" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D318" t="s">
         <v>18</v>
@@ -9767,10 +9767,10 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B319" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D319" t="s">
         <v>58</v>
@@ -9779,18 +9779,18 @@
         <v>275</v>
       </c>
       <c r="F319" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G319" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B320" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C320" t="s">
         <v>198</v>
@@ -9799,21 +9799,21 @@
         <v>58</v>
       </c>
       <c r="E320" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F320" t="s">
         <v>44</v>
       </c>
       <c r="L320" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B321" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D321" t="s">
         <v>84</v>
@@ -9828,106 +9828,106 @@
         <v>200</v>
       </c>
       <c r="L321" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B322" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D322" t="s">
         <v>18</v>
       </c>
       <c r="E322" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L322" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B323" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D323" t="s">
         <v>58</v>
       </c>
       <c r="E323" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F323" t="s">
         <v>44</v>
       </c>
       <c r="L323" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B324" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D324" t="s">
         <v>84</v>
       </c>
       <c r="E324" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F324" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G324" t="s">
         <v>200</v>
       </c>
       <c r="L324" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B325" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D325" t="s">
         <v>18</v>
       </c>
       <c r="E325" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L325" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B326" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D326" t="s">
         <v>213</v>
       </c>
       <c r="E326" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B327" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D327" t="s">
         <v>84</v>
@@ -9942,15 +9942,15 @@
         <v>218</v>
       </c>
       <c r="L327" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B328" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D328" t="s">
         <v>81</v>
@@ -9959,21 +9959,21 @@
         <v>219</v>
       </c>
       <c r="L328" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B329" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D329" t="s">
         <v>42</v>
       </c>
       <c r="E329" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F329" t="s">
         <v>269</v>
@@ -9981,33 +9981,33 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B330" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D330" t="s">
         <v>58</v>
       </c>
       <c r="E330" t="s">
+        <v>388</v>
+      </c>
+      <c r="F330" t="s">
         <v>390</v>
-      </c>
-      <c r="F330" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B331" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D331" t="s">
         <v>18</v>
       </c>
       <c r="E331" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H331" t="s">
         <v>177</v>
@@ -10015,10 +10015,10 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B332" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D332" t="s">
         <v>213</v>
@@ -10035,22 +10035,22 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B333" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C333" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D333" t="s">
         <v>103</v>
       </c>
       <c r="E333" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F333" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K333" t="s">
         <v>33</v>
@@ -10058,10 +10058,10 @@
     </row>
     <row r="334" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B334" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D334" t="s">
         <v>18</v>
@@ -10070,21 +10070,21 @@
         <v>287</v>
       </c>
       <c r="G334" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H334" t="s">
         <v>177</v>
       </c>
       <c r="L334" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B335" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D335" t="s">
         <v>18</v>
@@ -10093,21 +10093,21 @@
         <v>287</v>
       </c>
       <c r="G335" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H335" t="s">
         <v>177</v>
       </c>
       <c r="L335" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B336" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D336" t="s">
         <v>84</v>
@@ -10121,10 +10121,10 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B337" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D337" t="s">
         <v>58</v>
@@ -10136,15 +10136,15 @@
         <v>44</v>
       </c>
       <c r="L337" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B338" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D338" t="s">
         <v>18</v>
@@ -10159,15 +10159,15 @@
         <v>1</v>
       </c>
       <c r="L338" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B339" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D339" t="s">
         <v>84</v>
@@ -10176,18 +10176,18 @@
         <v>261</v>
       </c>
       <c r="F339" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L339" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B340" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D340" t="s">
         <v>58</v>
@@ -10199,15 +10199,15 @@
         <v>263</v>
       </c>
       <c r="L340" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B341" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D341" t="s">
         <v>81</v>
@@ -10218,50 +10218,50 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B342" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D342" t="s">
         <v>58</v>
       </c>
       <c r="E342" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F342" t="s">
         <v>44</v>
       </c>
       <c r="L342" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B343" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D343" t="s">
         <v>84</v>
       </c>
       <c r="E343" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F343" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L343" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B344" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D344" t="s">
         <v>81</v>
@@ -10270,21 +10270,21 @@
         <v>264</v>
       </c>
       <c r="L344" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B345" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D345" t="s">
         <v>58</v>
       </c>
       <c r="E345" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F345" t="s">
         <v>44</v>
@@ -10292,10 +10292,10 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B346" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D346" t="s">
         <v>84</v>
@@ -10309,13 +10309,13 @@
     </row>
     <row r="347" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B347" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C347" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D347" t="s">
         <v>18</v>
@@ -10324,38 +10324,38 @@
         <v>271</v>
       </c>
       <c r="H347" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L347" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B348" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D348" t="s">
         <v>18</v>
       </c>
       <c r="E348" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H348" t="s">
         <v>177</v>
       </c>
       <c r="L348" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B349" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D349" t="s">
         <v>58</v>
@@ -10364,18 +10364,18 @@
         <v>274</v>
       </c>
       <c r="F349" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L349" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B350" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D350" t="s">
         <v>18</v>
@@ -10384,38 +10384,38 @@
         <v>270</v>
       </c>
       <c r="H350" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L350" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B351" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D351" t="s">
         <v>18</v>
       </c>
       <c r="E351" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H351" t="s">
         <v>177</v>
       </c>
       <c r="L351" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="352" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B352" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D352" t="s">
         <v>58</v>
@@ -10424,38 +10424,38 @@
         <v>272</v>
       </c>
       <c r="F352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L352" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B353" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D353" t="s">
         <v>18</v>
       </c>
       <c r="E353" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H353" t="s">
         <v>177</v>
       </c>
       <c r="L353" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B354" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D354" t="s">
         <v>58</v>
@@ -10464,38 +10464,38 @@
         <v>276</v>
       </c>
       <c r="F354" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L354" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B355" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D355" t="s">
         <v>18</v>
       </c>
       <c r="E355" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H355" t="s">
         <v>177</v>
       </c>
       <c r="L355" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B356" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D356" t="s">
         <v>58</v>
@@ -10504,38 +10504,38 @@
         <v>277</v>
       </c>
       <c r="F356" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L356" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B357" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D357" t="s">
         <v>18</v>
       </c>
       <c r="E357" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H357" t="s">
         <v>177</v>
       </c>
       <c r="L357" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B358" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D358" t="s">
         <v>58</v>
@@ -10544,78 +10544,78 @@
         <v>278</v>
       </c>
       <c r="F358" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L358" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B359" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D359" t="s">
         <v>18</v>
       </c>
       <c r="E359" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H359" t="s">
         <v>177</v>
       </c>
       <c r="L359" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B360" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D360" t="s">
         <v>18</v>
       </c>
       <c r="E360" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H360" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L360" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B361" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D361" t="s">
         <v>18</v>
       </c>
       <c r="E361" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H361" t="s">
         <v>177</v>
       </c>
       <c r="L361" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B362" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D362" t="s">
         <v>58</v>
@@ -10629,10 +10629,10 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B363" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D363" t="s">
         <v>58</v>
@@ -10641,15 +10641,15 @@
         <v>196</v>
       </c>
       <c r="F363" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B364" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D364" t="s">
         <v>18</v>
@@ -10663,16 +10663,16 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B365" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D365" t="s">
         <v>58</v>
       </c>
       <c r="E365" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F365" t="s">
         <v>195</v>
@@ -10680,33 +10680,33 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B366" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D366" t="s">
         <v>58</v>
       </c>
       <c r="E366" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F366" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B367" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D367" t="s">
         <v>18</v>
       </c>
       <c r="E367" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H367" t="s">
         <v>177</v>
@@ -10714,33 +10714,33 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B368" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D368" t="s">
         <v>18</v>
       </c>
       <c r="E368" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H368" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B369" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D369" t="s">
         <v>18</v>
       </c>
       <c r="E369" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H369" t="s">
         <v>177</v>
@@ -10748,33 +10748,33 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B370" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D370" t="s">
         <v>18</v>
       </c>
       <c r="E370" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H370" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B371" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D371" t="s">
         <v>18</v>
       </c>
       <c r="E371" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H371" t="s">
         <v>177</v>
@@ -10782,33 +10782,33 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B372" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D372" t="s">
         <v>18</v>
       </c>
       <c r="E372" t="s">
+        <v>323</v>
+      </c>
+      <c r="H372" t="s">
         <v>324</v>
-      </c>
-      <c r="H372" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B373" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D373" t="s">
         <v>18</v>
       </c>
       <c r="E373" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H373" t="s">
         <v>177</v>
@@ -10816,33 +10816,33 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B374" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D374" t="s">
         <v>18</v>
       </c>
       <c r="E374" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H374" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B375" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D375" t="s">
         <v>18</v>
       </c>
       <c r="E375" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H375" t="s">
         <v>177</v>
@@ -10850,33 +10850,33 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B376" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D376" t="s">
         <v>18</v>
       </c>
       <c r="E376" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H376" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B377" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D377" t="s">
         <v>18</v>
       </c>
       <c r="E377" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H377" t="s">
         <v>177</v>
@@ -10884,44 +10884,44 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B378" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D378" t="s">
         <v>103</v>
       </c>
       <c r="E378" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F378" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B379" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D379" t="s">
         <v>58</v>
       </c>
       <c r="E379" t="s">
+        <v>332</v>
+      </c>
+      <c r="F379" t="s">
         <v>333</v>
-      </c>
-      <c r="F379" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B380" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D380" t="s">
         <v>18</v>
@@ -10932,10 +10932,10 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B381" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D381" t="s">
         <v>58</v>
@@ -10944,18 +10944,18 @@
         <v>275</v>
       </c>
       <c r="F381" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G381" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B382" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C382" t="s">
         <v>198</v>
@@ -10964,21 +10964,21 @@
         <v>58</v>
       </c>
       <c r="E382" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F382" t="s">
         <v>44</v>
       </c>
       <c r="L382" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B383" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D383" t="s">
         <v>84</v>
@@ -10993,98 +10993,98 @@
         <v>200</v>
       </c>
       <c r="L383" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B384" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D384" t="s">
         <v>18</v>
       </c>
       <c r="E384" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L384" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B385" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D385" t="s">
         <v>58</v>
       </c>
       <c r="E385" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F385" t="s">
         <v>44</v>
       </c>
       <c r="L385" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B386" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D386" t="s">
         <v>84</v>
       </c>
       <c r="E386" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F386" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G386" t="s">
         <v>200</v>
       </c>
       <c r="L386" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B387" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D387" t="s">
         <v>18</v>
       </c>
       <c r="E387" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L387" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B388" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D388" t="s">
         <v>213</v>
       </c>
       <c r="E388" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F388" t="s">
         <v>44</v>
@@ -11092,10 +11092,10 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B389" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D389" t="s">
         <v>84</v>
@@ -11110,15 +11110,15 @@
         <v>218</v>
       </c>
       <c r="L389" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B390" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D390" t="s">
         <v>81</v>
@@ -11127,21 +11127,21 @@
         <v>219</v>
       </c>
       <c r="L390" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B391" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D391" t="s">
         <v>42</v>
       </c>
       <c r="E391" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F391" t="s">
         <v>269</v>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B392" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C392" t="s">
         <v>201</v>
@@ -11167,15 +11167,15 @@
         <v>177</v>
       </c>
       <c r="L392" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B393" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D393" t="s">
         <v>42</v>
@@ -11184,35 +11184,35 @@
         <v>203</v>
       </c>
       <c r="F393" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L393" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B394" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D394" t="s">
         <v>18</v>
       </c>
       <c r="E394" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L394" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B395" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D395" t="s">
         <v>58</v>
@@ -11224,15 +11224,15 @@
         <v>205</v>
       </c>
       <c r="L395" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B396" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C396" t="s">
         <v>201</v>
@@ -11241,56 +11241,56 @@
         <v>18</v>
       </c>
       <c r="E396" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H396" t="s">
         <v>177</v>
       </c>
       <c r="L396" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B397" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D397" t="s">
         <v>42</v>
       </c>
       <c r="E397" t="s">
+        <v>339</v>
+      </c>
+      <c r="F397" t="s">
+        <v>410</v>
+      </c>
+      <c r="G397" t="s">
         <v>340</v>
-      </c>
-      <c r="F397" t="s">
-        <v>412</v>
-      </c>
-      <c r="G397" t="s">
-        <v>341</v>
       </c>
       <c r="H397" t="s">
         <v>115</v>
       </c>
       <c r="L397" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B398" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D398" t="s">
         <v>18</v>
       </c>
       <c r="E398" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L398" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -11298,7 +11298,7 @@
         <v>208</v>
       </c>
       <c r="B399" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D399" t="s">
         <v>42</v>
@@ -11315,7 +11315,7 @@
         <v>210</v>
       </c>
       <c r="B400" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D400" t="s">
         <v>18</v>
@@ -11332,7 +11332,7 @@
         <v>280</v>
       </c>
       <c r="B401" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D401" t="s">
         <v>58</v>
@@ -11344,21 +11344,21 @@
         <v>207</v>
       </c>
       <c r="L401" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B402" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D402" t="s">
         <v>213</v>
       </c>
       <c r="E402" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F402" t="s">
         <v>44</v>
@@ -11366,16 +11366,16 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B403" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D403" t="s">
         <v>213</v>
       </c>
       <c r="E403" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F403" t="s">
         <v>44</v>
@@ -11383,36 +11383,36 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B404" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D404" t="s">
         <v>18</v>
       </c>
       <c r="E404" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H404" t="s">
         <v>177</v>
       </c>
       <c r="L404" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B405" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D405" t="s">
         <v>18</v>
       </c>
       <c r="E405" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G405" t="s">
         <v>214</v>
@@ -11421,7 +11421,7 @@
         <v>177</v>
       </c>
       <c r="L405" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -11429,7 +11429,7 @@
         <v>215</v>
       </c>
       <c r="B406" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D406" t="s">
         <v>81</v>
@@ -11440,10 +11440,10 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B407" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C407" t="s">
         <v>217</v>
@@ -11452,44 +11452,44 @@
         <v>213</v>
       </c>
       <c r="E407" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F407" t="s">
         <v>44</v>
       </c>
       <c r="L407" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B408" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D408" t="s">
         <v>84</v>
       </c>
       <c r="E408" t="s">
+        <v>345</v>
+      </c>
+      <c r="F408" t="s">
         <v>346</v>
-      </c>
-      <c r="F408" t="s">
-        <v>347</v>
       </c>
       <c r="G408" t="s">
         <v>218</v>
       </c>
       <c r="L408" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B409" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D409" t="s">
         <v>81</v>
@@ -11498,15 +11498,15 @@
         <v>219</v>
       </c>
       <c r="L409" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B410" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C410" t="s">
         <v>220</v>
@@ -11521,15 +11521,15 @@
         <v>177</v>
       </c>
       <c r="L410" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B411" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D411" t="s">
         <v>18</v>
@@ -11541,15 +11541,15 @@
         <v>177</v>
       </c>
       <c r="L411" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B412" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D412" t="s">
         <v>18</v>
@@ -11561,15 +11561,15 @@
         <v>177</v>
       </c>
       <c r="L412" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B413" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D413" t="s">
         <v>18</v>
@@ -11581,15 +11581,15 @@
         <v>177</v>
       </c>
       <c r="L413" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B414" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D414" t="s">
         <v>18</v>
@@ -11604,15 +11604,15 @@
         <v>177</v>
       </c>
       <c r="L414" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B415" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D415" t="s">
         <v>18</v>
@@ -11627,15 +11627,15 @@
         <v>177</v>
       </c>
       <c r="L415" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B416" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D416" t="s">
         <v>84</v>
@@ -11647,15 +11647,15 @@
         <v>230</v>
       </c>
       <c r="L416" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B417" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D417" t="s">
         <v>81</v>
@@ -11664,15 +11664,15 @@
         <v>231</v>
       </c>
       <c r="L417" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B418" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D418" t="s">
         <v>58</v>
@@ -11681,21 +11681,21 @@
         <v>232</v>
       </c>
       <c r="F418" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G418" t="s">
         <v>233</v>
       </c>
       <c r="L418" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B419" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D419" t="s">
         <v>18</v>
@@ -11704,15 +11704,15 @@
         <v>234</v>
       </c>
       <c r="L419" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B420" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D420" t="s">
         <v>18</v>
@@ -11727,15 +11727,15 @@
         <v>177</v>
       </c>
       <c r="L420" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B421" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D421" t="s">
         <v>18</v>
@@ -11750,15 +11750,15 @@
         <v>177</v>
       </c>
       <c r="L421" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B422" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D422" t="s">
         <v>18</v>
@@ -11773,15 +11773,15 @@
         <v>177</v>
       </c>
       <c r="L422" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B423" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D423" t="s">
         <v>81</v>
@@ -11790,15 +11790,15 @@
         <v>241</v>
       </c>
       <c r="L423" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B424" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D424" t="s">
         <v>18</v>
@@ -11810,15 +11810,15 @@
         <v>177</v>
       </c>
       <c r="L424" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B425" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D425" t="s">
         <v>18</v>
@@ -11833,35 +11833,35 @@
         <v>177</v>
       </c>
       <c r="L425" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B426" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D426" t="s">
         <v>84</v>
       </c>
       <c r="E426" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F426" t="s">
         <v>230</v>
       </c>
       <c r="L426" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B427" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D427" t="s">
         <v>81</v>
@@ -11870,15 +11870,15 @@
         <v>231</v>
       </c>
       <c r="L427" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B428" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D428" t="s">
         <v>58</v>
@@ -11887,21 +11887,21 @@
         <v>232</v>
       </c>
       <c r="F428" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G428" t="s">
         <v>233</v>
       </c>
       <c r="L428" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B429" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D429" t="s">
         <v>81</v>
@@ -11910,7 +11910,7 @@
         <v>241</v>
       </c>
       <c r="L429" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
